--- a/Data/固定g_in/进一步寻找关系/summary.xlsx
+++ b/Data/固定g_in/进一步寻找关系/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18455" windowHeight="9852" activeTab="1"/>
+    <workbookView windowWidth="18820" windowHeight="9478" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>t/t_0</t>
   </si>
   <si>
-    <t>dgr/dgr_0</t>
+    <t>g_in/g_in0</t>
   </si>
   <si>
     <t>r</t>
@@ -55,9 +55,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -67,7 +67,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="13.5"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Mono"/>
       <charset val="134"/>
@@ -85,7 +85,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -93,8 +92,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -109,89 +154,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -199,16 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +178,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,13 +238,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +364,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,151 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,17 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,40 +451,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,153 +485,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -704,54 +704,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1210,56 +1210,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0521650822581403"/>
+          <c:y val="0.0919821826280624"/>
+          <c:w val="0.907519811161693"/>
+          <c:h val="0.743536206130609"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"11"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1337,10 +1306,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$15</c:f>
+              <c:f>Sheet2!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1382,57 +1351,75 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$15</c:f>
+              <c:f>Sheet2!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.32939252635348</c:v>
+                  <c:v>0.012406851243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36693468266519</c:v>
+                  <c:v>0.0499490075547095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43070479757691</c:v>
+                  <c:v>0.11371912246643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52259412456932</c:v>
+                  <c:v>0.20560844945884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64549743683565</c:v>
+                  <c:v>0.32851176172517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80344674495998</c:v>
+                  <c:v>0.4864610698495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.00208422407816</c:v>
+                  <c:v>0.685098548967679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.24916966909731</c:v>
+                  <c:v>0.93218399398683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.55546580296553</c:v>
+                  <c:v>1.23848012785505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.93641414484337</c:v>
+                  <c:v>1.61942846973289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.41307626141727</c:v>
+                  <c:v>2.09609058630679</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.01887580690267</c:v>
+                  <c:v>2.70189013179219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.80419442513417</c:v>
+                  <c:v>3.48720875002369</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.85225222766101</c:v>
+                  <c:v>4.53526655255053</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.99325018329003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.15015356957151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.6690618882798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2780,8 +2767,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1067435" y="658495"/>
-        <a:ext cx="9722485" cy="4045585"/>
+        <a:off x="1067435" y="664845"/>
+        <a:ext cx="9504680" cy="4096385"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2798,16 +2785,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1021080</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>154940</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>48260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:colOff>1024255</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>240665</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2815,8 +2802,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6240780" y="680720"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="4079240" y="2545715"/>
+        <a:ext cx="7534910" cy="2944495"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3093,10 +3080,10 @@
       <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.65" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="9.1875"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="9.18617021276596"/>
+    <col min="3" max="3" width="13.6276595744681" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3286,21 +3273,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.65"/>
   <cols>
-    <col min="2" max="2" width="9.1875"/>
-    <col min="3" max="4" width="12.3125"/>
-    <col min="6" max="6" width="12.3125"/>
-    <col min="8" max="8" width="12.3125"/>
+    <col min="1" max="1" width="12.2659574468085"/>
+    <col min="2" max="2" width="9.18617021276596"/>
+    <col min="3" max="4" width="12.313829787234"/>
+    <col min="6" max="6" width="12.313829787234"/>
+    <col min="8" max="8" width="12.313829787234"/>
+    <col min="10" max="10" width="12.2659574468085"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="2:8">
+    <row r="1" ht="21" customHeight="1" spans="2:10">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3319,8 +3308,15 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="J1">
+        <v>5.31698567511048</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <f>0.0349*EXP(0.3605*B2)</f>
+        <v>0.0500482144203818</v>
+      </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -3328,8 +3324,8 @@
         <v>5.32939252635348</v>
       </c>
       <c r="D2">
-        <f>C2-5</f>
-        <v>0.32939252635348</v>
+        <f>C2-5.31698567511048</f>
+        <v>0.012406851243</v>
       </c>
       <c r="E2">
         <f>0.0017*B2^3-0.0101*B2^2+0.1107*B2+5.1362</f>
@@ -3348,7 +3344,11 @@
         <v>0.00898648881962713</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <f t="shared" ref="A3:A18" si="0">0.0349*EXP(0.3605*B3)</f>
+        <v>0.0717714546323356</v>
+      </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -3356,27 +3356,31 @@
         <v>5.36693468266519</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D15" si="0">C3-5</f>
-        <v>0.36693468266519</v>
+        <f t="shared" ref="D3:D18" si="1">C3-5.31698567511048</f>
+        <v>0.0499490075547095</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E15" si="1">0.0017*B3^3-0.0101*B3^2+0.1107*B3+5.1362</f>
+        <f t="shared" ref="E3:E15" si="2">0.0017*B3^3-0.0101*B3^2+0.1107*B3+5.1362</f>
         <v>5.3308</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F15" si="2">ABS(E3-C3)/C3</f>
+        <f t="shared" ref="F3:F15" si="3">ABS(E3-C3)/C3</f>
         <v>0.00673283443934994</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="3">0.018*B3^2-0.0193*B3+5.2828</f>
+        <f t="shared" ref="G3:G15" si="4">0.018*B3^2-0.0193*B3+5.2828</f>
         <v>5.3162</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H15" si="4">ABS(G3-C3)/C3</f>
+        <f t="shared" ref="H3:H15" si="5">ABS(G3-C3)/C3</f>
         <v>0.00945319547656484</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>0.102923585979995</v>
+      </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -3384,27 +3388,31 @@
         <v>5.43070479757691</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.11371912246643</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>5.4233</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>0.00136350581608015</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>5.3869</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>0.00806613491428497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
         <f t="shared" si="0"/>
-        <v>0.43070479757691</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>5.4233</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>0.00136350581607998</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>5.3869</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="4"/>
-        <v>0.00806613491428497</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>0.147597183382275</v>
+      </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -3412,27 +3420,31 @@
         <v>5.52259412456932</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.20560844945884</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>5.5262</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0.000652931457453533</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>5.4936</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>0.00525009151773964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
         <f t="shared" si="0"/>
-        <v>0.52259412456932</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>5.5262</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0.000652931457453693</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>5.4936</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="4"/>
-        <v>0.00525009151773964</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+        <v>0.211661188589127</v>
+      </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -3440,27 +3452,31 @@
         <v>5.64549743683565</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.32851176172517</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>5.6497</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.000744409719669409</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5.6363</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>0.00162916322937966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <f t="shared" si="0"/>
-        <v>0.64549743683565</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>5.6497</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0.000744409719669566</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>5.6363</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>0.00162916322937966</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+        <v>0.303531935558209</v>
+      </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -3468,27 +3484,31 @@
         <v>5.80344674495998</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.4864610698495</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>5.804</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>9.53321473139781e-5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>5.815</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>0.00199075748391297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <f t="shared" si="0"/>
-        <v>0.80344674495998</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>5.804</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>9.53321473141311e-5</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>5.815</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="4"/>
-        <v>0.00199075748391313</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+        <v>0.435278836511483</v>
+      </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -3496,27 +3516,31 @@
         <v>6.00208422407816</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.685098548967679</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>5.9993</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.00046387620936581</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>6.0297</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>0.00460103105702118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
         <f t="shared" si="0"/>
-        <v>1.00208422407816</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>5.9993</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>0.00046387620936581</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>6.0297</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="4"/>
-        <v>0.00460103105702118</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>0.624209986887708</v>
+      </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -3524,27 +3548,31 @@
         <v>6.24916966909731</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.93218399398683</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>6.2458</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.000539218692360743</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>6.2804</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>0.00499751687926265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <f t="shared" si="0"/>
-        <v>1.24916966909731</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>6.2458</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0.000539218692361311</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>6.2804</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>0.00499751687926194</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+        <v>0.89514599619197</v>
+      </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -3552,27 +3580,31 @@
         <v>6.55546580296553</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1.23848012785505</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>6.5537</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.000269363462277904</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>6.5671</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>0.00177473232019707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <f t="shared" si="0"/>
-        <v>1.55546580296553</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>6.5537</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0.000269363462277768</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>6.5671</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
-        <v>0.00177473232019707</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+        <v>1.28368076661782</v>
+      </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -3580,27 +3612,31 @@
         <v>6.93641414484337</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.61942846973289</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>6.9332</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.000463372684539078</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>6.8898</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>0.00672020785812287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
         <f t="shared" si="0"/>
-        <v>1.93641414484337</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>6.9332</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>0.00046337268453895</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>6.8898</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>0.00672020785812274</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+        <v>1.84085760043005</v>
+      </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -3608,27 +3644,31 @@
         <v>7.41307626141727</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.09609058630679</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>7.3945</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.0025058775550381</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>7.2485</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>0.0222008051197096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
         <f t="shared" si="0"/>
-        <v>2.41307626141727</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>7.3945</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0.00250587755503798</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>7.2485</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>0.0222008051197096</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>2.63987495426111</v>
+      </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -3636,27 +3676,31 @@
         <v>8.01887580690267</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2.70189013179219</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>7.9478</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.00886356250105396</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>7.6432</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>0.0468489369269553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
         <f t="shared" si="0"/>
-        <v>3.01887580690267</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>7.9478</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>0.00886356250105385</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>7.6432</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="4"/>
-        <v>0.0468489369269552</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+        <v>3.78570280097008</v>
+      </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -3664,27 +3708,31 @@
         <v>8.80419442513417</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>3.48720875002369</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>8.6033</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.0228180359762</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>8.0739</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>0.0829484663638651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
         <f t="shared" si="0"/>
-        <v>3.80419442513417</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>8.6033</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0.0228180359761998</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>8.0739</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="4"/>
-        <v>0.0829484663638651</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+        <v>5.42887293738654</v>
+      </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -3692,24 +3740,104 @@
         <v>9.85225222766101</v>
       </c>
       <c r="D15">
+        <f t="shared" si="1"/>
+        <v>4.53526655255053</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>9.3712</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.0488266252776617</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>8.5406</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>0.133132221684138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
         <f t="shared" si="0"/>
-        <v>4.85225222766101</v>
-      </c>
-      <c r="E15">
+        <v>7.78525492353381</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>11.3102358584005</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="1"/>
-        <v>9.3712</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>0.0488266252776615</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>8.5406</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>0.133132221684138</v>
+        <v>5.99325018329003</v>
+      </c>
+      <c r="E16">
+        <f>0.0017*B16^3-0.0101*B16^2+0.1107*B16+5.1362</f>
+        <v>10.2617</v>
+      </c>
+      <c r="F16">
+        <f>ABS(E16-C16)/C16</f>
+        <v>0.0927068074908206</v>
+      </c>
+      <c r="G16">
+        <f>0.018*B16^2-0.0193*B16+5.2828</f>
+        <v>9.0433</v>
+      </c>
+      <c r="H16">
+        <f>ABS(G16-C16)/C16</f>
+        <v>0.200432235612202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>11.1644156942795</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>13.467139244682</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>8.15015356957151</v>
+      </c>
+      <c r="E17">
+        <f>0.0017*B17^3-0.0101*B17^2+0.1107*B17+5.1362</f>
+        <v>11.285</v>
+      </c>
+      <c r="F17">
+        <f>ABS(E17-C17)/C17</f>
+        <v>0.162034356743114</v>
+      </c>
+      <c r="G17">
+        <f>0.018*B17^2-0.0193*B17+5.2828</f>
+        <v>9.582</v>
+      </c>
+      <c r="H17">
+        <f>ABS(G17-C17)/C17</f>
+        <v>0.288490315136244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16.0102885543144</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>16.9860475633903</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>11.6690618882798</v>
       </c>
     </row>
   </sheetData>
@@ -3722,16 +3850,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.65" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.3125"/>
-    <col min="4" max="6" width="12.3125"/>
+    <col min="1" max="1" width="12.313829787234"/>
+    <col min="2" max="2" width="9.13297872340426"/>
+    <col min="3" max="3" width="12.2659574468085"/>
+    <col min="4" max="6" width="12.313829787234"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3768,6 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <f>1</f>
         <v>1</v>
       </c>
     </row>
@@ -3791,7 +3922,7 @@
       </c>
       <c r="F3">
         <f>LOG(D3)/LOG(E3)</f>
-        <v>0.0252000886178744</v>
+        <v>0.0252000886178776</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3809,12 +3940,12 @@
         <v>1.03691686594677</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E15" si="0">A4/5.20213873843725</f>
+        <f t="shared" ref="E4:E16" si="0">A4/5.20213873843725</f>
         <v>2.99924614031072</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F15" si="1">LOG(D4)/LOG(E4)</f>
-        <v>0.0330053226248003</v>
+        <v>0.0330053226247989</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3837,7 +3968,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.0382613182885523</v>
+        <v>0.0382613182885535</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3860,7 +3991,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.0466344604246497</v>
+        <v>0.0466344604246503</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3883,7 +4014,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.0572916764310237</v>
+        <v>0.0572916764310223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3906,7 +4037,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.0700506773309676</v>
+        <v>0.0700506773309678</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3929,7 +4060,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.0849552309985422</v>
+        <v>0.0849552309985411</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4067,7 +4198,64 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.23946692734256</v>
+        <v>0.239466927342559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>78.0045507265006</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>11.3102358584005</v>
+      </c>
+      <c r="D16">
+        <f>C16/C3</f>
+        <v>2.12214712012837</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>14.9947078785395</v>
+      </c>
+      <c r="F16">
+        <f>LOG(D16)/LOG(E16)</f>
+        <v>0.277884961558694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>83.2047485330715</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>13.467139244682</v>
+      </c>
+      <c r="D17">
+        <f>C17/C4</f>
+        <v>2.47981426843359</v>
+      </c>
+      <c r="E17">
+        <f>A17/5.20213873843725</f>
+        <v>15.9943347758669</v>
+      </c>
+      <c r="F17">
+        <f>LOG(D17)/LOG(E17)</f>
+        <v>0.32759986155954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>88.4048904736171</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>16.9860475633903</v>
       </c>
     </row>
   </sheetData>

--- a/Data/固定g_in/进一步寻找关系/summary.xlsx
+++ b/Data/固定g_in/进一步寻找关系/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18820" windowHeight="9478" activeTab="1"/>
+    <workbookView windowWidth="18455" windowHeight="9852" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,11 +53,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -86,84 +86,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +100,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -184,23 +115,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,11 +144,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -238,19 +238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,67 +256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,25 +268,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,37 +292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,13 +310,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +429,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,56 +510,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,162 +529,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -704,54 +704,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1210,7 +1210,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1371,55 +1371,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.012406851243</c:v>
+                  <c:v>0.0118320224968507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0499490075547095</c:v>
+                  <c:v>0.0493741788085602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11371912246643</c:v>
+                  <c:v>0.11314429372028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20560844945884</c:v>
+                  <c:v>0.20503362071269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32851176172517</c:v>
+                  <c:v>0.32793693297902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4864610698495</c:v>
+                  <c:v>0.48588624110335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.685098548967679</c:v>
+                  <c:v>0.68452372022153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93218399398683</c:v>
+                  <c:v>0.931609165240681</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.23848012785505</c:v>
+                  <c:v>1.2379052991089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.61942846973289</c:v>
+                  <c:v>1.61885364098674</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.09609058630679</c:v>
+                  <c:v>2.09551575756064</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.70189013179219</c:v>
+                  <c:v>2.70131530304604</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.48720875002369</c:v>
+                  <c:v>3.48663392127754</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.53526655255053</c:v>
+                  <c:v>4.53469172380438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.99325018329003</c:v>
+                  <c:v>5.99267535454387</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.15015356957151</c:v>
+                  <c:v>8.14957874082537</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.6690618882798</c:v>
+                  <c:v>11.6684870595337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2750,16 +2750,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1067435</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>140335</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1402715</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2767,8 +2767,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1067435" y="664845"/>
-        <a:ext cx="9504680" cy="4096385"/>
+        <a:off x="3620135" y="1489075"/>
+        <a:ext cx="9723120" cy="4045585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2785,16 +2785,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>48260</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1351280</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>234315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1024255</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>240665</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>808990</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2802,8 +2802,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4079240" y="2545715"/>
-        <a:ext cx="7534910" cy="2944495"/>
+        <a:off x="1351280" y="1537335"/>
+        <a:ext cx="7673975" cy="2909570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3080,10 +3080,10 @@
       <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.65" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="9.18617021276596"/>
-    <col min="3" max="3" width="13.6276595744681" customWidth="1"/>
+    <col min="2" max="2" width="9.1875"/>
+    <col min="3" max="3" width="13.6302083333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3276,17 +3276,17 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.65"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
   <cols>
-    <col min="1" max="1" width="12.2659574468085"/>
-    <col min="2" max="2" width="9.18617021276596"/>
-    <col min="3" max="4" width="12.313829787234"/>
-    <col min="6" max="6" width="12.313829787234"/>
-    <col min="8" max="8" width="12.313829787234"/>
-    <col min="10" max="10" width="12.2659574468085"/>
+    <col min="1" max="1" width="12.265625"/>
+    <col min="2" max="2" width="9.1875"/>
+    <col min="3" max="4" width="12.3125"/>
+    <col min="6" max="6" width="12.3125"/>
+    <col min="8" max="8" width="12.3125"/>
+    <col min="10" max="10" width="12.265625"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="2:10">
@@ -3324,8 +3324,8 @@
         <v>5.32939252635348</v>
       </c>
       <c r="D2">
-        <f>C2-5.31698567511048</f>
-        <v>0.012406851243</v>
+        <f>C2-5.31756050385663</f>
+        <v>0.0118320224968507</v>
       </c>
       <c r="E2">
         <f>0.0017*B2^3-0.0101*B2^2+0.1107*B2+5.1362</f>
@@ -3356,23 +3356,23 @@
         <v>5.36693468266519</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D18" si="1">C3-5.31698567511048</f>
-        <v>0.0499490075547095</v>
+        <f t="shared" ref="D3:D18" si="1">C3-5.31756050385663</f>
+        <v>0.0493741788085602</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E15" si="2">0.0017*B3^3-0.0101*B3^2+0.1107*B3+5.1362</f>
+        <f t="shared" ref="E3:E17" si="2">0.0017*B3^3-0.0101*B3^2+0.1107*B3+5.1362</f>
         <v>5.3308</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F15" si="3">ABS(E3-C3)/C3</f>
+        <f t="shared" ref="F3:F17" si="3">ABS(E3-C3)/C3</f>
         <v>0.00673283443934994</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="4">0.018*B3^2-0.0193*B3+5.2828</f>
+        <f t="shared" ref="G3:G17" si="4">0.018*B3^2-0.0193*B3+5.2828</f>
         <v>5.3162</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H15" si="5">ABS(G3-C3)/C3</f>
+        <f t="shared" ref="H3:H17" si="5">ABS(G3-C3)/C3</f>
         <v>0.00945319547656484</v>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>0.11371912246643</v>
+        <v>0.11314429372028</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>0.20560844945884</v>
+        <v>0.20503362071269</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>0.32851176172517</v>
+        <v>0.32793693297902</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.4864610698495</v>
+        <v>0.48588624110335</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.685098548967679</v>
+        <v>0.68452372022153</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.93218399398683</v>
+        <v>0.931609165240681</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1.23848012785505</v>
+        <v>1.2379052991089</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1.61942846973289</v>
+        <v>1.61885364098674</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>2.09609058630679</v>
+        <v>2.09551575756064</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>2.70189013179219</v>
+        <v>2.70131530304604</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>3.48720875002369</v>
+        <v>3.48663392127754</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>4.53526655255053</v>
+        <v>4.53469172380438</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
@@ -3773,22 +3773,22 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>5.99325018329003</v>
+        <v>5.99267535454387</v>
       </c>
       <c r="E16">
-        <f>0.0017*B16^3-0.0101*B16^2+0.1107*B16+5.1362</f>
+        <f t="shared" si="2"/>
         <v>10.2617</v>
       </c>
       <c r="F16">
-        <f>ABS(E16-C16)/C16</f>
+        <f t="shared" si="3"/>
         <v>0.0927068074908206</v>
       </c>
       <c r="G16">
-        <f>0.018*B16^2-0.0193*B16+5.2828</f>
+        <f t="shared" si="4"/>
         <v>9.0433</v>
       </c>
       <c r="H16">
-        <f>ABS(G16-C16)/C16</f>
+        <f t="shared" si="5"/>
         <v>0.200432235612202</v>
       </c>
     </row>
@@ -3805,22 +3805,22 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>8.15015356957151</v>
+        <v>8.14957874082537</v>
       </c>
       <c r="E17">
-        <f>0.0017*B17^3-0.0101*B17^2+0.1107*B17+5.1362</f>
+        <f t="shared" si="2"/>
         <v>11.285</v>
       </c>
       <c r="F17">
-        <f>ABS(E17-C17)/C17</f>
+        <f t="shared" si="3"/>
         <v>0.162034356743114</v>
       </c>
       <c r="G17">
-        <f>0.018*B17^2-0.0193*B17+5.2828</f>
+        <f t="shared" si="4"/>
         <v>9.582</v>
       </c>
       <c r="H17">
-        <f>ABS(G17-C17)/C17</f>
+        <f t="shared" si="5"/>
         <v>0.288490315136244</v>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>11.6690618882798</v>
+        <v>11.6684870595337</v>
       </c>
     </row>
   </sheetData>
@@ -3852,16 +3852,16 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.65" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.313829787234"/>
-    <col min="2" max="2" width="9.13297872340426"/>
-    <col min="3" max="3" width="12.2659574468085"/>
-    <col min="4" max="6" width="12.313829787234"/>
+    <col min="1" max="1" width="12.3125"/>
+    <col min="2" max="2" width="9.13541666666667"/>
+    <col min="3" max="3" width="12.265625"/>
+    <col min="4" max="6" width="12.3125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3940,11 +3940,11 @@
         <v>1.03691686594677</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="0">A4/5.20213873843725</f>
+        <f t="shared" ref="E4:E17" si="0">A4/5.20213873843725</f>
         <v>2.99924614031072</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F15" si="1">LOG(D4)/LOG(E4)</f>
+        <f t="shared" ref="F4:F17" si="1">LOG(D4)/LOG(E4)</f>
         <v>0.0330053226247989</v>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
         <v>14.9947078785395</v>
       </c>
       <c r="F16">
-        <f>LOG(D16)/LOG(E16)</f>
+        <f t="shared" si="1"/>
         <v>0.277884961558694</v>
       </c>
     </row>
@@ -4239,11 +4239,11 @@
         <v>2.47981426843359</v>
       </c>
       <c r="E17">
-        <f>A17/5.20213873843725</f>
+        <f t="shared" si="0"/>
         <v>15.9943347758669</v>
       </c>
       <c r="F17">
-        <f>LOG(D17)/LOG(E17)</f>
+        <f t="shared" si="1"/>
         <v>0.32759986155954</v>
       </c>
     </row>
